--- a/_docs/size_statistics.xlsx
+++ b/_docs/size_statistics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>(0, 100K)</t>
   </si>
@@ -61,13 +61,33 @@
   </si>
   <si>
     <t xml:space="preserve"> [30M, 50M)</t>
+  </si>
+  <si>
+    <t>大小区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +98,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -101,14 +139,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -150,7 +209,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$1:$N$1</c:f>
+              <c:f>工作表1!$B$1:$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -200,7 +259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$A$2:$N$2</c:f>
+              <c:f>工作表1!$B$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -259,11 +318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="707716376"/>
-        <c:axId val="707616888"/>
+        <c:axId val="140304744"/>
+        <c:axId val="854074168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="707716376"/>
+        <c:axId val="140304744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="707616888"/>
+        <c:crossAx val="854074168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -280,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="707616888"/>
+        <c:axId val="854074168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -291,7 +350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="707716376"/>
+        <c:crossAx val="140304744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -347,7 +406,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$1:$N$1</c:f>
+              <c:f>工作表1!$B$1:$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -397,7 +456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$A$3:$N$3</c:f>
+              <c:f>工作表1!$B$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
@@ -456,11 +515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="715818008"/>
-        <c:axId val="918341336"/>
+        <c:axId val="140333304"/>
+        <c:axId val="140334888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="715818008"/>
+        <c:axId val="140333304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="918341336"/>
+        <c:crossAx val="140334888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -477,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="918341336"/>
+        <c:axId val="140334888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +547,404 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715818008"/>
+        <c:crossAx val="140333304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>(0, 100K)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> [100K,300K)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> [300K,500K)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[500K,800K)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> [800K,1M) </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> [1M, 3M)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[3M, 5M)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[5M, 7M) </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[7M, 9M) </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> [9M, 11M) </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> [11M, 15M) </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[15M, 20M) </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[20M, 30M)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> [30M, 50M)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>298789.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151663.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56348.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36944.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34151.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15825.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3555.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1176.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>753.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="139656760"/>
+        <c:axId val="139659768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="139656760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139659768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139659768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139656760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0492296029485676"/>
+          <c:y val="0.041522491349481"/>
+          <c:w val="0.881565253811359"/>
+          <c:h val="0.911541835817236"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>%</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>(0, 100K)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> [100K,300K)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> [300K,500K)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[500K,800K)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> [800K,1M) </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> [1M, 3M)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[3M, 5M)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[5M, 7M) </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[7M, 9M) </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> [9M, 11M) </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> [11M, 15M) </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>[15M, 20M) </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>[20M, 30M)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> [30M, 50M)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.418596864330676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.212476551127998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0789423175260967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0517577372521494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0294191404438579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.130425463058307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0478448052430207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0221704794287371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00498047736929924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00164755031963317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00105493655670389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000432902252352592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000194735964650519</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6039126518135E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="853877784"/>
+        <c:axId val="853851336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="853877784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="853851336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853851336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="853877784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,15 +970,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -544,15 +1000,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -567,6 +1023,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,170 +1417,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="12" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>316227</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>222884</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>136667</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>62710</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>13476</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>38301</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18405</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5972</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1892</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>572</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>276</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>64</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>31</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10</v>
       </c>
-      <c r="O2">
-        <f>SUM(A2+B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2)</f>
+      <c r="P2">
+        <f>SUM(B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2)</f>
         <v>817487</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <f>A2/O2</f>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2/P2</f>
         <v>0.38682816974459533</v>
       </c>
-      <c r="B3" s="1">
-        <f>B2/O2</f>
+      <c r="C3" s="1">
+        <f>C2/P2</f>
         <v>0.27264531423741295</v>
       </c>
-      <c r="C3" s="1">
-        <f>C2/O2</f>
+      <c r="D3" s="1">
+        <f>D2/P2</f>
         <v>0.1671794169203914</v>
       </c>
-      <c r="D3" s="1">
-        <f>D2/O2</f>
+      <c r="E3" s="1">
+        <f>E2/P2</f>
         <v>7.671069998666645E-2</v>
       </c>
-      <c r="E3" s="1">
-        <f>E2/O2</f>
+      <c r="F3" s="1">
+        <f>F2/P2</f>
         <v>1.6484665811199443E-2</v>
       </c>
-      <c r="F3" s="1">
-        <f>F2/O2</f>
+      <c r="G3" s="1">
+        <f>G2/P2</f>
         <v>4.6852121195811065E-2</v>
       </c>
-      <c r="G3" s="1">
-        <f>G2/O2</f>
+      <c r="H3" s="1">
+        <f>H2/P2</f>
         <v>2.2514119490585172E-2</v>
       </c>
-      <c r="H3" s="1">
-        <f>H2/O2</f>
+      <c r="I3" s="1">
+        <f>I2/P2</f>
         <v>7.3053149469043547E-3</v>
       </c>
-      <c r="I3" s="1">
-        <f>I2/O2</f>
+      <c r="J3" s="1">
+        <f>J2/P2</f>
         <v>2.3144098927567044E-3</v>
       </c>
-      <c r="J3" s="1">
-        <f>J2/O2</f>
+      <c r="K3" s="1">
+        <f>K2/P2</f>
         <v>6.9970531641481764E-4</v>
       </c>
-      <c r="K3" s="1">
-        <f>K2/O2</f>
+      <c r="L3" s="1">
+        <f>L2/P2</f>
         <v>3.3762004778057633E-4</v>
       </c>
-      <c r="L3" s="1">
-        <f>L2/O2</f>
+      <c r="M3" s="1">
+        <f>M2/P2</f>
         <v>7.8288706731727847E-5</v>
       </c>
-      <c r="M3" s="1">
-        <f>M2/O2</f>
+      <c r="N3" s="1">
+        <f>N2/P2</f>
         <v>3.7921092323180674E-5</v>
       </c>
-      <c r="N3" s="1">
-        <f>N2/O2</f>
+      <c r="O3" s="1">
+        <f>O2/P2</f>
         <v>1.2232610426832475E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>298789</v>
+      </c>
+      <c r="C4" s="2">
+        <v>151663</v>
+      </c>
+      <c r="D4" s="2">
+        <v>56348</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36944</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>93096</v>
+      </c>
+      <c r="H4" s="2">
+        <v>34151</v>
+      </c>
+      <c r="I4" s="2">
+        <v>15825</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3555</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1176</v>
+      </c>
+      <c r="L4" s="2">
+        <v>753</v>
+      </c>
+      <c r="M4" s="2">
+        <v>309</v>
+      </c>
+      <c r="N4" s="2">
+        <v>139</v>
+      </c>
+      <c r="O4" s="2">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4" si="0">SUM(B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4)</f>
+        <v>713787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4/P4</f>
+        <v>0.41859686433067567</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4/P4</f>
+        <v>0.21247655112799757</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D4/P4</f>
+        <v>7.894231752609672E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E4/P4</f>
+        <v>5.1757737252149452E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>F4/P4</f>
+        <v>2.9419140443857902E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f>G4/P4</f>
+        <v>0.13042546305830732</v>
+      </c>
+      <c r="H5" s="1">
+        <f>H4/P4</f>
+        <v>4.7844805243020677E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f>I4/P4</f>
+        <v>2.2170479428737143E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f>J4/P4</f>
+        <v>4.9804773692992445E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <f>K4/P4</f>
+        <v>1.6475503196331678E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <f>L4/P4</f>
+        <v>1.0549365567038907E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <f>M4/P4</f>
+        <v>4.3290225235259258E-4</v>
+      </c>
+      <c r="N5" s="1">
+        <f>N4/P4</f>
+        <v>1.9473596465051899E-4</v>
+      </c>
+      <c r="O5" s="1">
+        <f>O4/P4</f>
+        <v>5.6039126518134961E-5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
